--- a/biology/Zoologie/Anthribinae/Anthribinae.xlsx
+++ b/biology/Zoologie/Anthribinae/Anthribinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthribinae sont une sous-famille d'insectes de l'ordre des Coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres rencontrés en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allandrus LeConte, 1876
 Anthribus Geoffroy, 1762
@@ -559,9 +573,11 @@
           <t>Liste des tribus, genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (27 août 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (27 août 2014) :
 tribu Allandrini Pierce, 1930
 tribu Anthribini Billberg, 1820
 tribu Basidotripini Lacordaire, 1866
@@ -577,7 +593,7 @@
 tribu Trigonorhinini Valentine, 1998
 tribu Tropiderini Lacordaire, 1866
 tribu Zygaenodini Lacordaire, 1866
-Selon NCBI  (27 août 2014)[2] :
+Selon NCBI  (27 août 2014) :
 tribu Anthribini
 genre Anthribus
 Anthribus nebulosus
@@ -603,7 +619,7 @@
 Gonotropis dorsalis
 tribu Zygaenodini
 genre Xynotropis
-Selon Paleobiology Database                   (27 août 2014)[3] :
+Selon Paleobiology Database                   (27 août 2014) :
 Anthribini
 Cratoparini
 Cretanthribini
